--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/41/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/41/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3573573573573574</v>
+        <v>0.6105610561056106</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3063063063063</v>
+        <v>1934.253425342534</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08158158158158159</v>
+        <v>0.063986398639864</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.938938938938939</v>
+        <v>0.8979897989798981</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339.339339339339</v>
+        <v>859.3159315931593</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>377.3773773773774</v>
+        <v>331.7731773177318</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209.2092092092092</v>
+        <v>851.2340234023402</v>
       </c>
     </row>
   </sheetData>
